--- a/BusPassengerListCreationTool/bin/Debug/net8.0-windows/template/_busPassengerList - BAK.xlsx
+++ b/BusPassengerListCreationTool/bin/Debug/net8.0-windows/template/_busPassengerList - BAK.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\windows\src\repos\BusPassengerListCreationTool\BusPassengerListCreationTool\bin\Debug\net8.0-windows\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06ED3A2A-4F02-4893-8729-18A201C8ACD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C003462-EDED-4911-87C8-487BBCC0834E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -171,11 +171,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="58" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -477,9 +477,9 @@
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="4" spans="1:6" ht="39.950000000000003" customHeight="1">
+      <c r="F2" s="4"/>
+    </row>
+    <row r="4" spans="1:6" ht="45" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -499,85 +499,85 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="39.950000000000003" customHeight="1">
+    <row r="5" spans="1:6" ht="45" customHeight="1">
       <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" ht="39.950000000000003" customHeight="1">
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" ht="45" customHeight="1">
       <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" ht="39.950000000000003" customHeight="1">
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" ht="45" customHeight="1">
       <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" ht="39.950000000000003" customHeight="1">
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" ht="45" customHeight="1">
       <c r="A8" s="2">
         <v>4</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" ht="39.950000000000003" customHeight="1">
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" ht="45" customHeight="1">
       <c r="A9" s="2">
         <v>5</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" ht="39.950000000000003" customHeight="1">
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" ht="45" customHeight="1">
       <c r="A10" s="2">
         <v>6</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" ht="39.950000000000003" customHeight="1">
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" ht="45" customHeight="1">
       <c r="A11" s="2">
         <v>7</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" ht="39.950000000000003" customHeight="1">
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" ht="45" customHeight="1">
       <c r="A12" s="2">
         <v>8</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="4"/>
+      <c r="F12" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
